--- a/GameBattle/GameBattle/Asset/Data/stage_boei.xlsx
+++ b/GameBattle/GameBattle/Asset/Data/stage_boei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameBattle\GameBattle\GameBattle\Asset\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{621B341B-AF28-4B62-A876-393DEBDC2B2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7D098301-FEB9-48F7-BB2F-DB3CDEB3ADA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13850" xr2:uid="{619A2896-8853-4FBF-81A7-9EE46CC3E753}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:BH30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO28" sqref="AO28"/>
+      <selection activeCell="AV15" sqref="AV15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="BF13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -3308,28 +3308,28 @@
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3464,28 +3464,28 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.55000000000000004">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="BG19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH19">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="AV20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW20">
         <v>0</v>
@@ -4400,16 +4400,16 @@
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS23">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="BB23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC23">
         <v>0</v>
@@ -4568,16 +4568,16 @@
         <v>0</v>
       </c>
       <c r="BE23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.55000000000000004">
@@ -4594,40 +4594,40 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -4714,40 +4714,40 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -4764,16 +4764,16 @@
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4932,30 +4932,30 @@
         <v>0</v>
       </c>
       <c r="BE25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5114,749 +5114,749 @@
         <v>0</v>
       </c>
       <c r="BE26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BG27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A26:BH30 A1:BH24">
+  <conditionalFormatting sqref="A1:BH30">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
